--- a/src/analysis_examples/circadb/results_jtk/cosinor_10465638_naa40_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10465638_naa40_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.18469328968472656, 0.2962975319967147]</t>
+          <t>[0.1860460432547114, 0.29494477842672984]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.271545957415299e-08</v>
+        <v>8.395885320311436e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>1.271545957415299e-08</v>
+        <v>8.395885320311436e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-0.5157369321208467</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.42152282403424046, 0.48074988365436233]</t>
+          <t>[0.42154603865622897, 0.4807266690323738]</t>
         </is>
       </c>
       <c r="U2" t="n">
